--- a/predictions/multiple/Retinopatías.xlsx
+++ b/predictions/multiple/Retinopatías.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4952458170451677</v>
+        <v>0.4882726990967786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9854533330251858</v>
+        <v>0.9856581517658599</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09385922463345875</v>
+        <v>0.09492573106102478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9987028401018317</v>
+        <v>0.9986881006942309</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03317149888781743</v>
+        <v>0.03349513783903844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996581084340065</v>
+        <v>0.9996547727563447</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1061043856454277</v>
+        <v>0.09701842627459029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999367966448703</v>
+        <v>0.9994220889162443</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/Retinopatías.xlsx
+++ b/predictions/multiple/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,10 +462,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4882726990967786</v>
+        <v>0.4927202043440829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9856581517658599</v>
+        <v>0.9855275168862212</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -470,10 +480,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09492573106102478</v>
+        <v>0.09314024093052152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9986881006942309</v>
+        <v>0.9987127766512816</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -483,10 +498,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03349513783903844</v>
+        <v>0.03285527010160284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996547727563447</v>
+        <v>0.9996613677366777</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -496,10 +516,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09701842627459029</v>
+        <v>0.09464358933099511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994220889162443</v>
+        <v>0.9994362351423224</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
       </c>
     </row>
   </sheetData>
